--- a/Document/JS/html.xlsx
+++ b/Document/JS/html.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Debounce vs throttle " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Phân Biệt "Attribute" và "Property" trong JavaScript (và HTML)</t>
   </si>
@@ -49,13 +50,19 @@
   </si>
   <si>
     <t>Đầu tiên bạn đọc cần hiểu rõ rằng trong document của HTML chỉ có khái niệm attribute của phần tử và không có khái niệm property của phần tử.</t>
+  </si>
+  <si>
+    <t>Debounce</t>
+  </si>
+  <si>
+    <t>Throttle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +77,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFE6C07B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -101,6 +120,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -118,6 +149,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>322743</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="184150"/>
+          <a:ext cx="8857143" cy="6142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46476</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>167402</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6813550"/>
+          <a:ext cx="9190476" cy="6980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -458,4 +570,94 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>